--- a/Statystyki_2018/Template/oopr_.xlsx
+++ b/Statystyki_2018/Template/oopr_.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Lp</t>
   </si>
@@ -347,16 +347,19 @@
     <t>Kordyka 4</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska 7</t>
+  </si>
+  <si>
     <t>Ula</t>
   </si>
   <si>
-    <t>Kowalewska 6</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Kowalewska 7</t>
+    <t>Kowalewska-KowalewskaKowalewska 6</t>
   </si>
   <si>
     <t>Jan</t>
@@ -3074,344 +3077,344 @@
       <c r="C7" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="89">
-        <v>0</v>
-      </c>
-      <c r="E7" s="89">
-        <v>0</v>
-      </c>
-      <c r="F7" s="89">
-        <v>0</v>
-      </c>
-      <c r="G7" s="89">
-        <v>0</v>
-      </c>
-      <c r="H7" s="89">
-        <v>0</v>
-      </c>
-      <c r="I7" s="89">
-        <v>0</v>
-      </c>
-      <c r="J7" s="89">
-        <v>0</v>
-      </c>
-      <c r="K7" s="89">
-        <v>0</v>
-      </c>
-      <c r="L7" s="89">
-        <v>0</v>
-      </c>
-      <c r="M7" s="89">
-        <v>0</v>
-      </c>
-      <c r="N7" s="89">
-        <v>0</v>
-      </c>
-      <c r="O7" s="89">
-        <v>0</v>
-      </c>
-      <c r="P7" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="89">
-        <v>0</v>
-      </c>
-      <c r="R7" s="89">
-        <v>0</v>
-      </c>
-      <c r="S7" s="89">
-        <v>0</v>
-      </c>
-      <c r="T7" s="89">
-        <v>0</v>
-      </c>
-      <c r="U7" s="89">
-        <v>0</v>
-      </c>
-      <c r="V7" s="89">
-        <v>0</v>
-      </c>
-      <c r="W7" s="89">
-        <v>0</v>
-      </c>
-      <c r="X7" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="90">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="91">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="91">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="91">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL7" s="89">
-        <v>0</v>
+      <c r="D7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV7" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW7" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX7" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY7" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK7" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL7" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -3419,349 +3422,349 @@
         <v>2</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="89">
-        <v>0</v>
-      </c>
-      <c r="E8" s="89">
-        <v>0</v>
-      </c>
-      <c r="F8" s="89">
-        <v>0</v>
-      </c>
-      <c r="G8" s="89">
-        <v>0</v>
-      </c>
-      <c r="H8" s="89">
-        <v>0</v>
-      </c>
-      <c r="I8" s="89">
-        <v>0</v>
-      </c>
-      <c r="J8" s="89">
-        <v>0</v>
-      </c>
-      <c r="K8" s="89">
-        <v>0</v>
-      </c>
-      <c r="L8" s="89">
-        <v>0</v>
-      </c>
-      <c r="M8" s="89">
-        <v>0</v>
-      </c>
-      <c r="N8" s="89">
-        <v>0</v>
-      </c>
-      <c r="O8" s="89">
-        <v>0</v>
-      </c>
-      <c r="P8" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="89">
-        <v>0</v>
-      </c>
-      <c r="R8" s="89">
-        <v>0</v>
-      </c>
-      <c r="S8" s="89">
-        <v>0</v>
-      </c>
-      <c r="T8" s="89">
-        <v>0</v>
-      </c>
-      <c r="U8" s="89">
-        <v>0</v>
-      </c>
-      <c r="V8" s="89">
-        <v>0</v>
-      </c>
-      <c r="W8" s="89">
-        <v>0</v>
-      </c>
-      <c r="X8" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="89">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="89">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL8" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -3769,349 +3772,349 @@
         <v>3</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="89">
-        <v>0</v>
-      </c>
-      <c r="E9" s="89">
-        <v>0</v>
-      </c>
-      <c r="F9" s="89">
-        <v>0</v>
-      </c>
-      <c r="G9" s="89">
-        <v>0</v>
-      </c>
-      <c r="H9" s="89">
-        <v>0</v>
-      </c>
-      <c r="I9" s="89">
-        <v>0</v>
-      </c>
-      <c r="J9" s="89">
-        <v>0</v>
-      </c>
-      <c r="K9" s="89">
-        <v>0</v>
-      </c>
-      <c r="L9" s="89">
-        <v>0</v>
-      </c>
-      <c r="M9" s="89">
-        <v>0</v>
-      </c>
-      <c r="N9" s="89">
-        <v>0</v>
-      </c>
-      <c r="O9" s="89">
-        <v>0</v>
-      </c>
-      <c r="P9" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="89">
-        <v>0</v>
-      </c>
-      <c r="R9" s="89">
-        <v>0</v>
-      </c>
-      <c r="S9" s="89">
-        <v>0</v>
-      </c>
-      <c r="T9" s="89">
-        <v>0</v>
-      </c>
-      <c r="U9" s="89">
-        <v>0</v>
-      </c>
-      <c r="V9" s="89">
-        <v>0</v>
-      </c>
-      <c r="W9" s="89">
-        <v>0</v>
-      </c>
-      <c r="X9" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CW9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CX9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="89">
-        <v>0</v>
-      </c>
-      <c r="CZ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="89">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL9" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -4119,349 +4122,349 @@
         <v>4</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="89">
         <v>1</v>
       </c>
-      <c r="E10" s="89">
-        <v>0</v>
-      </c>
-      <c r="F10" s="89">
-        <v>0</v>
-      </c>
-      <c r="G10" s="89">
-        <v>0</v>
-      </c>
-      <c r="H10" s="89">
-        <v>0</v>
-      </c>
-      <c r="I10" s="89">
-        <v>0</v>
-      </c>
-      <c r="J10" s="89">
-        <v>0</v>
-      </c>
-      <c r="K10" s="89">
-        <v>0</v>
-      </c>
-      <c r="L10" s="89">
-        <v>0</v>
-      </c>
-      <c r="M10" s="89">
-        <v>0</v>
-      </c>
-      <c r="N10" s="89">
-        <v>0</v>
-      </c>
-      <c r="O10" s="89">
-        <v>0</v>
-      </c>
-      <c r="P10" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="89">
-        <v>0</v>
-      </c>
-      <c r="R10" s="89">
-        <v>0</v>
-      </c>
-      <c r="S10" s="89">
-        <v>0</v>
-      </c>
-      <c r="T10" s="89">
-        <v>0</v>
-      </c>
-      <c r="U10" s="89">
-        <v>0</v>
-      </c>
-      <c r="V10" s="89">
-        <v>0</v>
-      </c>
-      <c r="W10" s="89">
-        <v>0</v>
-      </c>
-      <c r="X10" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CW10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CX10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="89">
-        <v>0</v>
-      </c>
-      <c r="CZ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="89">
-        <v>0</v>
+      <c r="E10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK10" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL10" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -4469,349 +4472,349 @@
         <v>5</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="89">
         <v>2</v>
       </c>
-      <c r="E11" s="89">
-        <v>0</v>
-      </c>
-      <c r="F11" s="89">
-        <v>0</v>
-      </c>
-      <c r="G11" s="89">
-        <v>0</v>
-      </c>
-      <c r="H11" s="89">
-        <v>0</v>
-      </c>
-      <c r="I11" s="89">
-        <v>0</v>
-      </c>
-      <c r="J11" s="89">
-        <v>0</v>
-      </c>
-      <c r="K11" s="89">
-        <v>0</v>
-      </c>
-      <c r="L11" s="89">
-        <v>0</v>
-      </c>
-      <c r="M11" s="89">
-        <v>0</v>
-      </c>
-      <c r="N11" s="89">
-        <v>0</v>
-      </c>
-      <c r="O11" s="89">
-        <v>0</v>
-      </c>
-      <c r="P11" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="89">
-        <v>0</v>
-      </c>
-      <c r="R11" s="89">
-        <v>0</v>
-      </c>
-      <c r="S11" s="89">
-        <v>0</v>
-      </c>
-      <c r="T11" s="89">
-        <v>0</v>
-      </c>
-      <c r="U11" s="89">
-        <v>0</v>
-      </c>
-      <c r="V11" s="89">
-        <v>0</v>
-      </c>
-      <c r="W11" s="89">
-        <v>0</v>
-      </c>
-      <c r="X11" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CW11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CX11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="89">
-        <v>0</v>
-      </c>
-      <c r="CZ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK11" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL11" s="89">
-        <v>0</v>
+      <c r="E11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK11" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL11" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -4819,349 +4822,349 @@
         <v>6</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="89">
-        <v>0</v>
-      </c>
-      <c r="E12" s="89">
-        <v>0</v>
-      </c>
-      <c r="F12" s="89">
-        <v>0</v>
-      </c>
-      <c r="G12" s="89">
-        <v>0</v>
-      </c>
-      <c r="H12" s="89">
-        <v>0</v>
-      </c>
-      <c r="I12" s="89">
-        <v>0</v>
-      </c>
-      <c r="J12" s="89">
-        <v>0</v>
-      </c>
-      <c r="K12" s="89">
-        <v>0</v>
-      </c>
-      <c r="L12" s="89">
-        <v>0</v>
-      </c>
-      <c r="M12" s="89">
-        <v>0</v>
-      </c>
-      <c r="N12" s="89">
-        <v>0</v>
-      </c>
-      <c r="O12" s="89">
-        <v>0</v>
-      </c>
-      <c r="P12" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="89">
-        <v>0</v>
-      </c>
-      <c r="R12" s="89">
-        <v>0</v>
-      </c>
-      <c r="S12" s="89">
-        <v>0</v>
-      </c>
-      <c r="T12" s="89">
-        <v>0</v>
-      </c>
-      <c r="U12" s="89">
-        <v>0</v>
-      </c>
-      <c r="V12" s="89">
-        <v>0</v>
-      </c>
-      <c r="W12" s="89">
-        <v>0</v>
-      </c>
-      <c r="X12" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="89">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BV12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="89">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CI12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CM12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CP12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CS12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CT12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CW12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CX12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CY12" s="89">
-        <v>0</v>
-      </c>
-      <c r="CZ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DA12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DB12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DC12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DD12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DE12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DI12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DK12" s="89">
-        <v>0</v>
-      </c>
-      <c r="DL12" s="89">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="W12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="X12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CJ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CR12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CU12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CX12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DE12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DH12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DI12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK12" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="DL12" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Statystyki_2018/Template/oopr_.xlsx
+++ b/Statystyki_2018/Template/oopr_.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Lp</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>trzaskowski 5</t>
+  </si>
+  <si>
+    <t>Razem</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -941,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
@@ -1204,6 +1210,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1642,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DM12"/>
+  <dimension ref="A1:DM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="CX6" activePane="bottomRight" state="frozen"/>
@@ -4127,8 +4136,8 @@
       <c r="C10" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="89">
-        <v>1</v>
+      <c r="D10" s="89" t="s">
+        <v>81</v>
       </c>
       <c r="E10" s="89" t="s">
         <v>81</v>
@@ -4477,8 +4486,8 @@
       <c r="C11" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="89">
-        <v>2</v>
+      <c r="D11" s="89" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>81</v>
@@ -5165,6 +5174,350 @@
       </c>
       <c r="DL12" s="89" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="V13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CG13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CL13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CN13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CP13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CT13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CV13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CW13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CX13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CY13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DA13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DB13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DC13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DD13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DE13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DF13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DG13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DH13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DI13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DJ13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DK13" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="DL13" s="92" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Statystyki_2018/Template/oopr_.xlsx
+++ b/Statystyki_2018/Template/oopr_.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Lp</t>
   </si>
@@ -340,49 +340,55 @@
 </t>
   </si>
   <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>Jola</t>
+  </si>
+  <si>
     <t>Krystian</t>
   </si>
   <si>
-    <t>Kordyka 4</t>
-  </si>
-  <si>
-    <t/>
+    <t>Kordyka</t>
   </si>
   <si>
     <t>Ala</t>
   </si>
   <si>
-    <t>Kowalewska 7</t>
+    <t>Kowalewska</t>
   </si>
   <si>
     <t>Ula</t>
   </si>
   <si>
-    <t>Kowalewska-KowalewskaKowalewska 6</t>
+    <t>Kowalewska-KowalewskaKowalewska</t>
   </si>
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>Nowak 1</t>
+    <t>Nowak</t>
   </si>
   <si>
     <t>Michał</t>
   </si>
   <si>
-    <t>Sokołowski 2</t>
+    <t>Sokołowski</t>
   </si>
   <si>
     <t>tomasz</t>
   </si>
   <si>
-    <t>trzaskowski 5</t>
+    <t>trzaskowski</t>
   </si>
   <si>
     <t>Razem</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1,23</t>
   </si>
 </sst>
 </file>
@@ -955,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
@@ -1224,10 +1230,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DK13"/>
+  <dimension ref="A1:DK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
@@ -3080,335 +3089,338 @@
       <c r="C7" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT7" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU7" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV7" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW7" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI7" s="92" t="s">
-        <v>79</v>
+      <c r="D7" s="92">
+        <v>0</v>
+      </c>
+      <c r="E7" s="92">
+        <v>1.23</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0</v>
+      </c>
+      <c r="G7" s="92">
+        <v>0</v>
+      </c>
+      <c r="H7" s="92">
+        <v>0</v>
+      </c>
+      <c r="I7" s="92">
+        <v>0</v>
+      </c>
+      <c r="J7" s="92">
+        <v>0</v>
+      </c>
+      <c r="K7" s="92">
+        <v>0</v>
+      </c>
+      <c r="L7" s="92">
+        <v>0</v>
+      </c>
+      <c r="M7" s="92">
+        <v>0</v>
+      </c>
+      <c r="N7" s="92">
+        <v>0</v>
+      </c>
+      <c r="O7" s="92">
+        <v>0</v>
+      </c>
+      <c r="P7" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="92">
+        <v>0</v>
+      </c>
+      <c r="R7" s="92">
+        <v>0</v>
+      </c>
+      <c r="S7" s="92">
+        <v>0</v>
+      </c>
+      <c r="T7" s="92">
+        <v>0</v>
+      </c>
+      <c r="U7" s="92">
+        <v>0</v>
+      </c>
+      <c r="V7" s="92">
+        <v>0</v>
+      </c>
+      <c r="W7" s="92">
+        <v>0</v>
+      </c>
+      <c r="X7" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="94">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="94">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="94">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3416,340 +3428,343 @@
         <v>2</v>
       </c>
       <c r="B8" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI8" s="92" t="s">
-        <v>79</v>
+      <c r="D8" s="92">
+        <v>0</v>
+      </c>
+      <c r="E8" s="92">
+        <v>0</v>
+      </c>
+      <c r="F8" s="92">
+        <v>0</v>
+      </c>
+      <c r="G8" s="92">
+        <v>0</v>
+      </c>
+      <c r="H8" s="92">
+        <v>0</v>
+      </c>
+      <c r="I8" s="92">
+        <v>0</v>
+      </c>
+      <c r="J8" s="92">
+        <v>0</v>
+      </c>
+      <c r="K8" s="92">
+        <v>0</v>
+      </c>
+      <c r="L8" s="92">
+        <v>0</v>
+      </c>
+      <c r="M8" s="92">
+        <v>0</v>
+      </c>
+      <c r="N8" s="92">
+        <v>0</v>
+      </c>
+      <c r="O8" s="92">
+        <v>0</v>
+      </c>
+      <c r="P8" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="92">
+        <v>0</v>
+      </c>
+      <c r="R8" s="92">
+        <v>0</v>
+      </c>
+      <c r="S8" s="92">
+        <v>0</v>
+      </c>
+      <c r="T8" s="92">
+        <v>0</v>
+      </c>
+      <c r="U8" s="92">
+        <v>0</v>
+      </c>
+      <c r="V8" s="92">
+        <v>0</v>
+      </c>
+      <c r="W8" s="92">
+        <v>0</v>
+      </c>
+      <c r="X8" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3757,340 +3772,343 @@
         <v>3</v>
       </c>
       <c r="B9" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI9" s="92" t="s">
-        <v>79</v>
+      <c r="D9" s="92">
+        <v>0</v>
+      </c>
+      <c r="E9" s="92">
+        <v>0</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0</v>
+      </c>
+      <c r="G9" s="92">
+        <v>0</v>
+      </c>
+      <c r="H9" s="92">
+        <v>0</v>
+      </c>
+      <c r="I9" s="92">
+        <v>0</v>
+      </c>
+      <c r="J9" s="92">
+        <v>0</v>
+      </c>
+      <c r="K9" s="92">
+        <v>0</v>
+      </c>
+      <c r="L9" s="92">
+        <v>0</v>
+      </c>
+      <c r="M9" s="92">
+        <v>0</v>
+      </c>
+      <c r="N9" s="92">
+        <v>0</v>
+      </c>
+      <c r="O9" s="92">
+        <v>0</v>
+      </c>
+      <c r="P9" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="92">
+        <v>0</v>
+      </c>
+      <c r="R9" s="92">
+        <v>0</v>
+      </c>
+      <c r="S9" s="92">
+        <v>0</v>
+      </c>
+      <c r="T9" s="92">
+        <v>0</v>
+      </c>
+      <c r="U9" s="92">
+        <v>0</v>
+      </c>
+      <c r="V9" s="92">
+        <v>0</v>
+      </c>
+      <c r="W9" s="92">
+        <v>0</v>
+      </c>
+      <c r="X9" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4098,340 +4116,343 @@
         <v>4</v>
       </c>
       <c r="B10" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH10" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI10" s="92" t="s">
-        <v>79</v>
+      <c r="D10" s="92">
+        <v>0</v>
+      </c>
+      <c r="E10" s="92">
+        <v>0</v>
+      </c>
+      <c r="F10" s="92">
+        <v>0</v>
+      </c>
+      <c r="G10" s="92">
+        <v>0</v>
+      </c>
+      <c r="H10" s="92">
+        <v>0</v>
+      </c>
+      <c r="I10" s="92">
+        <v>0</v>
+      </c>
+      <c r="J10" s="92">
+        <v>0</v>
+      </c>
+      <c r="K10" s="92">
+        <v>0</v>
+      </c>
+      <c r="L10" s="92">
+        <v>0</v>
+      </c>
+      <c r="M10" s="92">
+        <v>0</v>
+      </c>
+      <c r="N10" s="92">
+        <v>0</v>
+      </c>
+      <c r="O10" s="92">
+        <v>0</v>
+      </c>
+      <c r="P10" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="92">
+        <v>0</v>
+      </c>
+      <c r="R10" s="92">
+        <v>0</v>
+      </c>
+      <c r="S10" s="92">
+        <v>0</v>
+      </c>
+      <c r="T10" s="92">
+        <v>0</v>
+      </c>
+      <c r="U10" s="92">
+        <v>0</v>
+      </c>
+      <c r="V10" s="92">
+        <v>0</v>
+      </c>
+      <c r="W10" s="92">
+        <v>0</v>
+      </c>
+      <c r="X10" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4439,340 +4460,343 @@
         <v>5</v>
       </c>
       <c r="B11" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH11" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI11" s="92" t="s">
-        <v>79</v>
+      <c r="D11" s="92">
+        <v>0</v>
+      </c>
+      <c r="E11" s="92">
+        <v>0</v>
+      </c>
+      <c r="F11" s="92">
+        <v>0</v>
+      </c>
+      <c r="G11" s="92">
+        <v>0</v>
+      </c>
+      <c r="H11" s="92">
+        <v>0</v>
+      </c>
+      <c r="I11" s="92">
+        <v>0</v>
+      </c>
+      <c r="J11" s="92">
+        <v>0</v>
+      </c>
+      <c r="K11" s="92">
+        <v>0</v>
+      </c>
+      <c r="L11" s="92">
+        <v>0</v>
+      </c>
+      <c r="M11" s="92">
+        <v>0</v>
+      </c>
+      <c r="N11" s="92">
+        <v>0</v>
+      </c>
+      <c r="O11" s="92">
+        <v>0</v>
+      </c>
+      <c r="P11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92">
+        <v>0</v>
+      </c>
+      <c r="R11" s="92">
+        <v>0</v>
+      </c>
+      <c r="S11" s="92">
+        <v>0</v>
+      </c>
+      <c r="T11" s="92">
+        <v>0</v>
+      </c>
+      <c r="U11" s="92">
+        <v>0</v>
+      </c>
+      <c r="V11" s="92">
+        <v>0</v>
+      </c>
+      <c r="W11" s="92">
+        <v>0</v>
+      </c>
+      <c r="X11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4780,675 +4804,1025 @@
         <v>6</v>
       </c>
       <c r="B12" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="U12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="BZ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CF12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CI12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CJ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CK12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CL12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CN12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CO12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CQ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CS12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CT12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CU12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CV12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CW12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CX12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DC12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DD12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DE12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DH12" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI12" s="92" t="s">
-        <v>79</v>
+      <c r="D12" s="92">
+        <v>0</v>
+      </c>
+      <c r="E12" s="92">
+        <v>0</v>
+      </c>
+      <c r="F12" s="92">
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <v>0</v>
+      </c>
+      <c r="H12" s="92">
+        <v>0</v>
+      </c>
+      <c r="I12" s="92">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <v>0</v>
+      </c>
+      <c r="L12" s="92">
+        <v>0</v>
+      </c>
+      <c r="M12" s="92">
+        <v>0</v>
+      </c>
+      <c r="N12" s="92">
+        <v>0</v>
+      </c>
+      <c r="O12" s="92">
+        <v>0</v>
+      </c>
+      <c r="P12" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="92">
+        <v>0</v>
+      </c>
+      <c r="R12" s="92">
+        <v>0</v>
+      </c>
+      <c r="S12" s="92">
+        <v>0</v>
+      </c>
+      <c r="T12" s="92">
+        <v>0</v>
+      </c>
+      <c r="U12" s="92">
+        <v>0</v>
+      </c>
+      <c r="V12" s="92">
+        <v>0</v>
+      </c>
+      <c r="W12" s="92">
+        <v>0</v>
+      </c>
+      <c r="X12" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="92">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="95" t="s">
+      <c r="A13" s="90">
+        <v>7</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="92">
+        <v>0</v>
+      </c>
+      <c r="E13" s="92">
+        <v>0</v>
+      </c>
+      <c r="F13" s="92">
+        <v>0</v>
+      </c>
+      <c r="G13" s="92">
+        <v>0</v>
+      </c>
+      <c r="H13" s="92">
+        <v>0</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92">
+        <v>0</v>
+      </c>
+      <c r="K13" s="92">
+        <v>0</v>
+      </c>
+      <c r="L13" s="92">
+        <v>0</v>
+      </c>
+      <c r="M13" s="92">
+        <v>0</v>
+      </c>
+      <c r="N13" s="92">
+        <v>0</v>
+      </c>
+      <c r="O13" s="92">
+        <v>0</v>
+      </c>
+      <c r="P13" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="92">
+        <v>0</v>
+      </c>
+      <c r="R13" s="92">
+        <v>0</v>
+      </c>
+      <c r="S13" s="92">
+        <v>0</v>
+      </c>
+      <c r="T13" s="92">
+        <v>0</v>
+      </c>
+      <c r="U13" s="92">
+        <v>0</v>
+      </c>
+      <c r="V13" s="92">
+        <v>0</v>
+      </c>
+      <c r="W13" s="92">
+        <v>0</v>
+      </c>
+      <c r="X13" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="92">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="92">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CX13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="92">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DC13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="92">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="T13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="V13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="W13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="X13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BV13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BX13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="BZ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CB13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CC13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CD13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CF13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CI13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CJ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CN13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CR13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CT13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CU13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CV13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CW13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CX13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CY13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="CZ13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DA13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DB13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DC13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DD13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DE13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DF13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DG13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DH13" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="DI13" s="95" t="s">
-        <v>91</v>
+      <c r="D14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="V14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="X14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CM14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CT14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CU14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CV14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CW14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CX14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CY14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="CZ14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DA14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DB14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DC14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DD14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DE14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DF14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DG14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DH14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DI14" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ14" s="92" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
